--- a/docs/5u24/doc/_downloads/nablarch5u15-releasenote.xlsx
+++ b/docs/5u24/doc/_downloads/nablarch5u15-releasenote.xlsx
@@ -1,99 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <fileSharing readOnlyRecommended="1"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021410F3-9EE8-4289-9D76-6FA8F724C8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="12555" tabRatio="678" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="分類" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="5u15" sheetId="2" r:id="rId2"/>
-    <sheet name="バージョンアップ手順" sheetId="3" r:id="rId3"/>
-    <sheet name="標準プラグインの変更点" sheetId="4" r:id="rId4"/>
-    <sheet name="テスティングフレームワークの設定変更方法" sheetId="5" r:id="rId5"/>
-    <sheet name="HttpServerクラスを使っている場合の対応方法" sheetId="6" r:id="rId6"/>
+    <sheet name="5u15" sheetId="2" r:id="rId1"/>
+    <sheet name="バージョンアップ手順" sheetId="3" r:id="rId2"/>
+    <sheet name="標準プラグインの変更点" sheetId="4" r:id="rId3"/>
+    <sheet name="テスティングフレームワークの設定変更方法" sheetId="5" r:id="rId4"/>
+    <sheet name="HttpServerクラスを使っている場合の対応方法" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'5u15'!$A$5:$O$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'5u15'!$A$1:$O$37</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">HttpServerクラスを使っている場合の対応方法!$A$1:$K$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">テスティングフレームワークの設定変更方法!$A$1:$Q$57</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">バージョンアップ手順!$A$1:$C$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">標準プラグインの変更点!$A$1:$I$15</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'5u15'!$4:$5</definedName>
-    <definedName name="Z_0EF4A104_C8C5_4BB8_9459_A34A36EE0DB2_.wvu.FilterData" localSheetId="1" hidden="1">'5u15'!$A$5:$O$35</definedName>
-    <definedName name="Z_0F2DE67E_9B48_4DF8_A75E_2BDBD83B073C_.wvu.PrintArea" localSheetId="3" hidden="1">標準プラグインの変更点!$A$1:$I$15</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.FilterData" localSheetId="1" hidden="1">'5u15'!$A$6:$O$26</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.PrintArea" localSheetId="1" hidden="1">'5u15'!$A$1:$O$26</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u15'!#REF!</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.Cols" localSheetId="1" hidden="1">'5u15'!#REF!</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.PrintArea" localSheetId="1" hidden="1">'5u15'!$A$1:$M$26</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u15'!#REF!</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.Cols" localSheetId="1" hidden="1">'5u15'!#REF!</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.PrintArea" localSheetId="1" hidden="1">'5u15'!$C$6:$M$26</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.Rows" localSheetId="1" hidden="1">'5u15'!#REF!</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.FilterData" localSheetId="1" hidden="1">'5u15'!$A$6:$O$26</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.PrintArea" localSheetId="1" hidden="1">'5u15'!$A$1:$O$26</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u15'!#REF!</definedName>
-    <definedName name="Z_40B3BD4E_A90D_4626_81B6_C0483900AF4D_.wvu.FilterData" localSheetId="1" hidden="1">'5u15'!$E$1:$E$26</definedName>
-    <definedName name="Z_44808EAA_6A97_40F3_8667_B3675ADED7A3_.wvu.PrintArea" localSheetId="3" hidden="1">標準プラグインの変更点!$A$1:$I$15</definedName>
-    <definedName name="Z_4655032F_EDA3_424D_B394_37A8E68C4904_.wvu.FilterData" localSheetId="1" hidden="1">'5u15'!$A$6:$O$26</definedName>
-    <definedName name="Z_4D2933E2_6487_444C_A6EE_CA2B07EBFF56_.wvu.FilterData" localSheetId="1" hidden="1">'5u15'!$E$1:$E$26</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.FilterData" localSheetId="1" hidden="1">'5u15'!$A$6:$O$26</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.PrintArea" localSheetId="1" hidden="1">'5u15'!$A$1:$O$26</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u15'!#REF!</definedName>
-    <definedName name="Z_70553CE3_733A_4433_9EF9_07365707E65C_.wvu.FilterData" localSheetId="1" hidden="1">'5u15'!$A$6:$O$26</definedName>
-    <definedName name="Z_75534C82_75DB_44B7_B1F4_76A899C57CD8_.wvu.FilterData" localSheetId="1" hidden="1">'5u15'!$A$6:$O$26</definedName>
-    <definedName name="Z_7E72A7FA_5272_4028_BF60_AC28CB0FDCEF_.wvu.FilterData" localSheetId="1" hidden="1">'5u15'!$A$5:$O$35</definedName>
-    <definedName name="Z_88EDDA8D_68B8_4E64_A52A_39C4E90703A2_.wvu.FilterData" localSheetId="1" hidden="1">'5u15'!$E$1:$E$26</definedName>
-    <definedName name="Z_96DBAE9A_1F7D_4BD5_957A_BAABE8078AFA_.wvu.PrintArea" localSheetId="3" hidden="1">標準プラグインの変更点!$A$1:$I$15</definedName>
-    <definedName name="Z_97E28DB9_53A7_48FD_8211_F8091EFD672D_.wvu.FilterData" localSheetId="1" hidden="1">'5u15'!$A$5:$O$35</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.FilterData" localSheetId="1" hidden="1">'5u15'!$E$1:$E$26</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.PrintArea" localSheetId="1" hidden="1">'5u15'!$A$1:$O$26</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u15'!#REF!</definedName>
-    <definedName name="Z_9A22F025_86BB_4FF2_93A1_C23747445003_.wvu.FilterData" localSheetId="1" hidden="1">'5u15'!$A$6:$O$26</definedName>
-    <definedName name="Z_AEBFA514_5783_483E_9999_1A19A29D6033_.wvu.FilterData" localSheetId="1" hidden="1">'5u15'!$A$5:$O$35</definedName>
-    <definedName name="Z_B0F4C8B8_30A7_47A3_9D99_1B2817E1C261_.wvu.FilterData" localSheetId="1" hidden="1">'5u15'!$A$5:$O$5</definedName>
-    <definedName name="Z_B411F40C_A56F_482D_B60C_F67E5DEF671D_.wvu.FilterData" localSheetId="1" hidden="1">'5u15'!$A$5:$O$35</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.Cols" localSheetId="1" hidden="1">'5u15'!#REF!</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.PrintArea" localSheetId="1" hidden="1">'5u15'!$C$6:$M$26</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.Rows" localSheetId="1" hidden="1">'5u15'!#REF!</definedName>
-    <definedName name="Z_B98E9A70_C592_47CF_A3E9_FBB4A91609B9_.wvu.FilterData" localSheetId="1" hidden="1">'5u15'!$A$6:$O$26</definedName>
-    <definedName name="Z_C8533345_E8EC_44D7_B9B9_D1614D468D93_.wvu.PrintArea" localSheetId="3" hidden="1">標準プラグインの変更点!$A$1:$I$15</definedName>
-    <definedName name="Z_CB63417C_4A99_4348_B0FA_FE9F3E662D2A_.wvu.FilterData" localSheetId="1" hidden="1">'5u15'!$A$6:$O$26</definedName>
-    <definedName name="Z_E48E441D_FA69_4C3B_8C53_088671C9AB11_.wvu.FilterData" localSheetId="1" hidden="1">'5u15'!$A$5:$O$35</definedName>
-    <definedName name="Z_EA0083FB_5437_48A3_9D11_4029C7E5B1F9_.wvu.FilterData" localSheetId="1" hidden="1">'5u15'!$A$5:$O$35</definedName>
-    <definedName name="Z_EA675E32_024D_4164_ACA4_4EB3E1B601BC_.wvu.FilterData" localSheetId="1" hidden="1">'5u15'!$A$6:$O$26</definedName>
-    <definedName name="Z_EF0F843B_318F_4282_AA07_302A6B0BD46D_.wvu.FilterData" localSheetId="1" hidden="1">'5u15'!$A$6:$O$26</definedName>
-    <definedName name="Z_F9C6D7B5_0301_4534_A6AE_FF0B6DC60A9A_.wvu.FilterData" localSheetId="1" hidden="1">'5u15'!$A$5:$O$35</definedName>
-    <definedName name="機能分類">分類!$B$4:$B$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'5u15'!$A$1:$O$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">HttpServerクラスを使っている場合の対応方法!$A$1:$K$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">テスティングフレームワークの設定変更方法!$A$1:$Q$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">バージョンアップ手順!$A$1:$C$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">標準プラグインの変更点!$A$1:$I$15</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'5u15'!$4:$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="273">
-  <si>
-    <t>開発ガイド</t>
-  </si>
-  <si>
-    <t>環境構築ガイド</t>
-  </si>
-  <si>
-    <t>ドキュメント規約</t>
-  </si>
-  <si>
-    <t>設計書フォーマット</t>
-  </si>
-  <si>
-    <t>コーディング規約</t>
-  </si>
-  <si>
-    <t>業務機能サンプル</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="205">
   <si>
     <t>参照先</t>
     <rPh sb="0" eb="2">
@@ -102,237 +50,21 @@
     <rPh sb="2" eb="3">
       <t>サキ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>拡張モジュールサンプル</t>
-  </si>
-  <si>
-    <t>設計標準</t>
-  </si>
-  <si>
-    <t>設定ファイル</t>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>ログ出力</t>
-  </si>
-  <si>
-    <t>リポジトリ</t>
-  </si>
-  <si>
-    <t>トランザクション管理機能</t>
-  </si>
-  <si>
-    <t>データベースアクセス(検索、更新、登録、削除)機能</t>
-  </si>
-  <si>
-    <t>静的データのキャッシュ</t>
-  </si>
-  <si>
-    <t>日付の管理機能</t>
-  </si>
-  <si>
-    <t>メッセージ</t>
-  </si>
-  <si>
-    <t>バリデーションとEntityの生成</t>
-  </si>
-  <si>
-    <t>汎用データフォーマット機能</t>
-  </si>
-  <si>
-    <t>同一スレッド内でのデータ共有(スレッドコンテキスト)</t>
-  </si>
-  <si>
-    <t>FWユーティリティ</t>
-  </si>
-  <si>
-    <t>FW標準ハンドラ</t>
-  </si>
-  <si>
-    <t>共通アーキテクチャ</t>
-  </si>
-  <si>
-    <t>データリーダ</t>
-  </si>
-  <si>
-    <t>国際化機能</t>
-  </si>
-  <si>
-    <t>メッセージング実行制御基盤</t>
-  </si>
-  <si>
-    <t>画面オンライン実行制御基盤</t>
-  </si>
-  <si>
-    <t>バッチ実行制御基盤</t>
-  </si>
-  <si>
-    <t>ファイルダウンロード</t>
-  </si>
-  <si>
-    <t>ファイルアップロード</t>
-  </si>
-  <si>
-    <t>開閉局</t>
-  </si>
-  <si>
-    <t>コード管理</t>
-  </si>
-  <si>
-    <t>日付ユーティリティ</t>
-  </si>
-  <si>
-    <t>暗号化機能</t>
-  </si>
-  <si>
-    <t>排他制御機能</t>
-  </si>
-  <si>
-    <t>採番機能</t>
-  </si>
-  <si>
-    <t>認可</t>
-  </si>
-  <si>
-    <t>画面用排他制御機能</t>
-  </si>
-  <si>
-    <t>カスタムタグ</t>
-  </si>
-  <si>
-    <t>共通コンポーネントで共通使用するユーティリティ</t>
-  </si>
-  <si>
-    <t>画面用共通機能</t>
-  </si>
-  <si>
-    <t>共通ハンドラ</t>
-  </si>
-  <si>
-    <t>画面用共通ハンドラ</t>
-  </si>
-  <si>
-    <t>I/O関連共通機能</t>
-  </si>
-  <si>
-    <t>メール</t>
-  </si>
-  <si>
-    <t>ワークフロー</t>
-  </si>
-  <si>
-    <t>その他コード不備</t>
-  </si>
-  <si>
-    <t>自動テストフレームワーク</t>
-  </si>
-  <si>
-    <t>HTML構文チェックツール</t>
-  </si>
-  <si>
-    <t>JSP静的解析ツール</t>
-  </si>
-  <si>
-    <t>リクエスト単体テストデータ作成ツール</t>
-  </si>
-  <si>
-    <t>Java静的解析ツール</t>
-  </si>
-  <si>
-    <t>チュートリアル用コンテンツ</t>
-  </si>
-  <si>
-    <t>NablarchToolbox</t>
-  </si>
-  <si>
-    <t>画面開発ツール</t>
-  </si>
-  <si>
-    <t>業務画面テンプレート</t>
-  </si>
-  <si>
-    <t>UI部品ウィジェット</t>
-  </si>
-  <si>
-    <t>JavaScript UI部品</t>
-  </si>
-  <si>
-    <t>CSSフレームワーク</t>
-  </si>
-  <si>
-    <t>その他</t>
-  </si>
-  <si>
-    <t>工程・WBS・成果物定義</t>
-  </si>
-  <si>
-    <t>ツール統合</t>
-  </si>
-  <si>
-    <t>各種標準追加・見直し</t>
-  </si>
-  <si>
-    <t>CTS（変更管理）</t>
-  </si>
-  <si>
-    <t>ADD（ダッシュボード）</t>
-  </si>
-  <si>
-    <t>Capsule-T</t>
-  </si>
-  <si>
-    <t>機能分類</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>画面用Form自動生成機能</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>設計書表示機能</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>リリース
@@ -340,14 +72,14 @@
     <rPh sb="5" eb="7">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>■バージョンアップ手順</t>
     <rPh sb="9" eb="11">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>適用手順</t>
@@ -357,7 +89,7 @@
     <rPh sb="2" eb="4">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>アプリケーションフレームワーク</t>
@@ -367,14 +99,14 @@
     <rPh sb="0" eb="3">
       <t>カイセツショ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ETL基盤</t>
   </si>
   <si>
     <t>テスティングフレームワーク</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Example</t>
@@ -382,15 +114,15 @@
   </si>
   <si>
     <t>コンテンツ</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>修正後のバージョン
@@ -401,7 +133,7 @@
     <rPh sb="2" eb="3">
       <t>アト</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>FBシステム
@@ -410,7 +142,7 @@
     <rPh sb="11" eb="13">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>システムへの
@@ -422,7 +154,7 @@
     <rPh sb="10" eb="13">
       <t>カノウセイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>システムへの影響の可能性の内容と対処</t>
@@ -438,14 +170,14 @@
     <rPh sb="16" eb="18">
       <t>タイショ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>mavenのビルドを再実行する</t>
     <rPh sb="10" eb="13">
       <t>サイジッコウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>アダプタ</t>
@@ -453,36 +185,36 @@
   </si>
   <si>
     <t>モジュール</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Nablarch</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>オブジェクトコード、ソースコード</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>本リリースの適用手順は、次の通りです。</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>オブジェクトコード、ソースコード</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ワークフローライブラリ</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>不具合の起因バージョン
 （※2）</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>■UI開発基盤（標準プラグイン）の変更点</t>
@@ -492,7 +224,7 @@
     <rPh sb="19" eb="20">
       <t>テン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>変更実施
@@ -503,27 +235,27 @@
     <rPh sb="2" eb="4">
       <t>ジッシ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="27"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>標準プラグイン</t>
     <rPh sb="0" eb="2">
       <t>ヒョウジュン</t>
     </rPh>
-    <phoneticPr fontId="27"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>プラグイン
 バージョン</t>
-    <phoneticPr fontId="27"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>プラグインの変更概要</t>
@@ -533,192 +265,192 @@
     <rPh sb="8" eb="10">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="27"/>
+    <phoneticPr fontId="25"/>
   </si>
   <si>
     <t>■Nablarch 5u15 リリースノート</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>変更</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>全体</t>
     <rPh sb="0" eb="2">
       <t>ゼン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>システムリポジトリ</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ソースコード</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>変更</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ブランクプロジェクトのJava11対応</t>
     <rPh sb="17" eb="19">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NAB-329</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ETL</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>変更</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-etl 1.2.2</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>不具合</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>セッションストア</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-fw-web 1.5.2</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NAB-288</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>オブジェクトコード、ソースコード</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Nablarch開発ツール</t>
     <rPh sb="8" eb="10">
       <t>カイハツ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NAB-320</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NAB-318</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>RESTfulウェブサービス</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Nablarch Validation</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NAB-324</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-example-batch 5u15</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Nablarchバッチアプリケーション</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ExampleのJava11対応</t>
     <rPh sb="14" eb="16">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NAB-290</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-example-rest 5u15</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NAB-326</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-jaxrs-archetype 5u15</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-jaxrs-archetype 5u15
 nablarch-batch-ee-archetype 5u15
 nablarch-batch-archetype 5u15
 nablarch-web-archetype 5u15</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ログ出力</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ワークフロー定義データ生成ツール</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1.0.0</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-plugins-bundle 1.0.3
 nablarch-ui-development-template 1.1.2</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>HTTPメッセージング</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-example-http-messaging 5u15</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NAB-319</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>稼働環境</t>
@@ -728,14 +460,14 @@
     <rPh sb="2" eb="4">
       <t>カンキョウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>アプリケーションフレームワークのJava11対応</t>
     <rPh sb="22" eb="24">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>アプリケーションフレームワークのテスト環境を更新</t>
@@ -745,7 +477,7 @@
     <rPh sb="22" eb="24">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NAB-290</t>
@@ -776,11 +508,11 @@
     <rPh sb="23" eb="25">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NAB-330</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">システムリポジトリに登録するコンポーネントはアプリケーションスコープとなるため、スレッドセーフである必要があります。これまでの解説書ではこの注意点が読み取りにくかったため、注釈と実装例を修正しました。
@@ -815,7 +547,7 @@
     <rPh sb="93" eb="95">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ドメインバリデーションに複数のバリデーションルールを設定した場合の仕様を追記</t>
@@ -825,7 +557,7 @@
     <rPh sb="36" eb="38">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>メッセージングログのプレースホルダの仕様を追記</t>
@@ -835,7 +567,7 @@
     <rPh sb="21" eb="23">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ドメインバリデーションに複数のバリデーションルールを設定した場合、一つの入力項目に複数のエラーが存在する場合でも、バリデーション処理は一つ目のエラーで打ち切ります。この仕様を追記しました。</t>
@@ -857,7 +589,7 @@
     <rPh sb="87" eb="89">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>メッセージングログに以下のプレースホルダがありますが、出力内容に関する詳細な仕様が明記されていなかったので追記しました。
@@ -887,7 +619,7 @@
     <rPh sb="53" eb="55">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">ブランクプロジェクトのJava11対応を行いました。
@@ -911,7 +643,7 @@
     <rPh sb="74" eb="76">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">nablarch-web-archetype 5u15
@@ -919,27 +651,27 @@
 nablarch-batch-ee-archetype 5u15
 nablarch-jaxrs-archetype 5u15
 </t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NAB-290
 NAB-288</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ブランクプロジェクト</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ブランクプロジェクトのデフォルトのコネクションプールを変更</t>
     <rPh sb="27" eb="29">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>RESTfulウェブサービス</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ブランクプロジェクトが使用しているモジュールの脆弱性対応</t>
@@ -952,7 +684,7 @@
     <rPh sb="26" eb="28">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>変更内容はNo.8と同じになります。</t>
@@ -965,14 +697,14 @@
     <rPh sb="10" eb="11">
       <t>オナ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">nablarch-jackson-adaptor 1.0.5
 nablarch-jersey-adaptor 1.0.4
 nablarch-resteasy-adaptor 1.0.4
 </t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>変更内容はNo.7と同じになります。</t>
@@ -985,14 +717,14 @@
     <rPh sb="10" eb="11">
       <t>オナ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Exampleのコネクションプールを変更</t>
     <rPh sb="18" eb="20">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>変更内容はNo.9と同じになります。</t>
@@ -1005,7 +737,7 @@
     <rPh sb="10" eb="11">
       <t>オナ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">nablarch-example-web 5u15
@@ -1023,7 +755,7 @@
 nablarch-example-db-queue 5u15
 nablarch-example-workflow 5u15
 </t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">nablarch-example-web 5u15
@@ -1039,28 +771,28 @@
 nablarch-example-db-queue 5u15
 nablarch-example-workflow 5u15
 </t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">nablarch-example-rest 5u15
 nablarch-example-http-messaging 5u15
 </t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>全てのExample</t>
     <rPh sb="0" eb="1">
       <t>スベ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NAB-317</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ワークフロー定義データ生成ツールをJava11で使用する場合の設定方法を追記</t>
@@ -1079,7 +811,7 @@
     <rPh sb="36" eb="38">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ワークフロー定義データ生成ツールをJava11で使用する場合は、設定が必要になるため、ドキュメントに設定方法を追記しました。</t>
@@ -1101,7 +833,7 @@
     <rPh sb="55" eb="57">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">Exampleが使用しているモジュールの脆弱性対応
@@ -1115,7 +847,7 @@
     <rPh sb="23" eb="25">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>RESTfulウェブサービスが使用しているモジュールの脆弱性対応</t>
@@ -1128,7 +860,7 @@
     <rPh sb="30" eb="32">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">UI開発基盤が使用しているモジュールの脆弱性対応
@@ -1148,14 +880,14 @@
     <rPh sb="22" eb="24">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">UI開発基盤が使用している以下のモジュールに脆弱性があることが発表されたため、脆弱性対応が行われたバージョンに変更しました。
 ・jQuery
 なお、Nablarchでは脆弱性のある機能を使用していません。
 </t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>UI開発基盤</t>
@@ -1168,18 +900,18 @@
     <rPh sb="4" eb="6">
       <t>キバン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>テスティングフレームワーク</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>テスティングフレームワークのJava11対応</t>
     <rPh sb="20" eb="22">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>対象のバージョンから今回のバージョンまでのリリースノートの「UI開発基盤（標準プラグイン）の変更点」を全て確認してバージョンアップを実施してください。</t>
@@ -1256,7 +988,7 @@
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u15/doc/development_tools/ui_dev/doc/development_environment/update_bundle_plugin.html</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>pom.xmlの&lt;dependencyManagement&gt;セクションに指定されているnablarch-bomのバージョンを5u15に書き換える</t>
@@ -1269,7 +1001,7 @@
     <rPh sb="69" eb="70">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ここでは、テスティングフレームワークのHttpServerクラスを直接使用している場合の対応方法について説明します。</t>
@@ -1291,14 +1023,14 @@
     <rPh sb="52" eb="54">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>◆概要</t>
     <rPh sb="1" eb="3">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>◆対応方法</t>
@@ -1308,7 +1040,7 @@
     <rPh sb="3" eb="5">
       <t>ホウホウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>変更前の実装例を示します。</t>
@@ -1327,7 +1059,7 @@
     <rPh sb="8" eb="9">
       <t>シメ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>変更後の実装例を示します。</t>
@@ -1346,7 +1078,7 @@
     <rPh sb="8" eb="9">
       <t>シメ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>テスティングフレームワークのモジュール分割に伴い、HttpServerクラスを具象クラスから抽象クラスに変更し、</t>
@@ -1365,7 +1097,7 @@
     <rPh sb="52" eb="54">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Jettyのバージョンに合わせたHttpServerのサブクラスを具象クラスとして追加しました。</t>
@@ -1378,7 +1110,7 @@
     <rPh sb="41" eb="43">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>HttpSeverのサブクラスをインスタンス化するように修正してください。</t>
@@ -1388,7 +1120,7 @@
     <rPh sb="28" eb="30">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>使用するJavaのバージョンにより、生成するクラスが変わります。</t>
@@ -1401,7 +1133,7 @@
     <rPh sb="26" eb="27">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>そのため、テスティングフレームワークをバージョンアップすると、HttpServerクラスをインスタンス化している部分が</t>
@@ -1411,11 +1143,11 @@
     <rPh sb="56" eb="58">
       <t>ブブン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>コンパイルエラーとなります。</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-testing 1.3.0
@@ -1423,15 +1155,15 @@
 nablarch-testing-jetty9 1.0.0
 sql-executor 1.2.0
 nablarch-messaging-simulator 1.2.0</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Java静的チェック</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>あり(開発)</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ブラックリストの設定方法を追記</t>
@@ -1444,7 +1176,7 @@
     <rPh sb="13" eb="15">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">ブラックリストの設定方法を明記できていなかったため、READMEに追記しました。
@@ -1468,7 +1200,7 @@
     <rPh sb="65" eb="67">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">ETLが使用しているモジュールの脆弱性対応
@@ -1482,22 +1214,22 @@
     <rPh sb="19" eb="21">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">RESTfulウェブサービス
 HTTPメッセージング
 </t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>5u14からの変更点を記載しています。</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>JIRA
 (※5)</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>実行手順の記載を改善</t>
@@ -1513,7 +1245,7 @@
     <rPh sb="8" eb="10">
       <t>カイゼン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">READMEに実行手順を記載しています。その中で実行後の実行結果が見やすくなかったので改善しました。
@@ -1548,7 +1280,7 @@
     <rPh sb="43" eb="45">
       <t>カイゼン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">READMEに実行手順を記載しています。PDF出力バッチの実行手順が分かりにくかったので実行手順を改善しました。
@@ -1583,7 +1315,7 @@
     <rPh sb="49" eb="51">
       <t>カイゼン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">READMEに実行手順を記載しています。動作確認するためのクライアントアプリケーションの実行手順が分かりにくかったので実行手順を改善しました。
@@ -1621,7 +1353,7 @@
     <rPh sb="64" eb="66">
       <t>カイゼン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">BeanValidationを使用した相関バリデーションの実装で、相関バリデーションの対象となる値が不正な場合に実行時エラーとなる状態でした。値が不正な場合を考慮するように相関バリデーションの実装を修正しました。
@@ -1680,7 +1412,7 @@
     <rPh sb="99" eb="101">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <r>
@@ -1842,7 +1574,7 @@
     <rPh sb="30" eb="32">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">プランクプロジェクトが使用している以下のモジュールに脆弱性があることが発表されたため、脆弱性対応が行われたバージョンに変更しました。
@@ -1882,7 +1614,7 @@
     <rPh sb="136" eb="138">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>■HttpServerクラスを使っている場合の対応方法</t>
@@ -1898,7 +1630,7 @@
     <rPh sb="25" eb="27">
       <t>ホウホウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>相関バリデーションで実行時エラーが発生する問題に対応</t>
@@ -1920,19 +1652,19 @@
     <rPh sb="24" eb="26">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>不具合</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-example-http-messaging 5u15</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>5u6</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">アプリケーションフレームワークのJava11対応を行いました。それに伴いテスト環境を以下の通り更新しています。
@@ -1983,7 +1715,7 @@
     <rPh sb="19" eb="21">
       <t>ホウホウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ここでは、テスティングフレームワークの設定変更方法について説明します。</t>
@@ -1999,14 +1731,14 @@
     <rPh sb="29" eb="31">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>・com.nablarch.framework:nablarch-testing-jetty9</t>
   </si>
   <si>
     <t>テスティングフレームワークはWebアプリケーションのリクエスト単体テストを実現するために内部でJettyを使用しています。</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>上記のモジュールのうち、使用するJettyのバージョンに応じて選択する必要があります。</t>
@@ -2025,7 +1757,7 @@
     <rPh sb="35" eb="37">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>また、テスト用のコンポーネント設定ファイルに、モジュールに応じたコンポーネントを登録しておく必要があります。</t>
@@ -2044,7 +1776,7 @@
     <rPh sb="46" eb="48">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>現状のJetty6をそのまま使用し続ける場合の手順を記載します。</t>
@@ -2066,14 +1798,14 @@
     <rPh sb="26" eb="28">
       <t>キサイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>pom.xmlの変更</t>
     <rPh sb="8" eb="10">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>以下の依存ライブラリを追加します。</t>
@@ -2086,7 +1818,7 @@
     <rPh sb="11" eb="13">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>コンポーネント定義ファイル(src/test/resources/unit-test.xml)への設定追加</t>
@@ -2099,7 +1831,7 @@
     <rPh sb="51" eb="53">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Jetty9を使用する場合は、解説書の以下の手順を参照してださい。</t>
@@ -2124,7 +1856,7 @@
     <rPh sb="25" eb="27">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>◆モジュールの選択方法</t>
@@ -2134,11 +1866,11 @@
     <rPh sb="9" eb="11">
       <t>ホウホウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>・com.nablarch.framework:nablarch-testing-jetty6</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>⇒nablarch-testing-jetty6を選択してください。フレームワーク、依存ライブラリの差異を最小限に抑えられます。</t>
@@ -2157,7 +1889,7 @@
     <rPh sb="57" eb="58">
       <t>オサ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Java6～8を使用しており、Nablarchのバージョンを上げたいが既存のテスト資産には極力影響を与えたくない場合</t>
@@ -2185,18 +1917,18 @@
     <rPh sb="56" eb="58">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>⇒nablarch-testing-jetty9を選択してください。</t>
     <rPh sb="25" eb="27">
       <t>センタク</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">  （Java11ではJetty6は動作しないため自動的にJetty9を選択することになります）</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Java8または11を使用しており、Servlet API 3.0以降の機能をリクエスト単体テストで使用したい場合</t>
@@ -2218,7 +1950,7 @@
     <rPh sb="55" eb="57">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">概要欄に記載したモジュール分割に伴い、バージョンアップ時は設定変更が必要になります。対応方法は「テスティングフレームワークの設定変更方法」を参照ください。
@@ -2241,7 +1973,7 @@
     <rPh sb="253" eb="255">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">テスティングフレームワークのJava11対応を行いました。
@@ -2330,7 +2062,7 @@
     <rPh sb="396" eb="398">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Nablarchのバージョンを上げて、Javaのバージョンも11に上げたい場合</t>
@@ -2343,7 +2075,7 @@
     <rPh sb="37" eb="39">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">これまではブランクプロジェクトのデフォルトのコネクションプールとしてApache Commons DBCPを使用していましたが、常駐バッチでDBアクセスを繰り返した場合にStatementがメモリに溜まり続ける問題を検知しました。そのため、デフォルトのコネクションプールを同様の事象が発生しないHikariCPに変更しました。
@@ -2424,7 +2156,7 @@
     <rPh sb="264" eb="266">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <r>
@@ -2443,26 +2175,26 @@
   </si>
   <si>
     <t>JettyはJavaのバージョンにより、提供されるモジュールが異なり、かつ後方互換性もありません。</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>参考：https://www.eclipse.org/jetty/documentation/current/what-jetty-version.html</t>
     <rPh sb="0" eb="2">
       <t>サンコウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>そのため、Java11対応に伴い、テスティングフレームワークが使用しているJettyをJavaのバージョンによって切り替える必要があり、</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>テスティングフレームワークのJetty依存部分を以下の2つのモジュールに分割しました。</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NAB-323</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">■Nablarchフレームワークのテスト環境
@@ -2470,18 +2202,18 @@
 ■Java11で使用する場合のセットアップ方法
 https://nablarch.github.io/docs/5u15/doc/application_framework/application_framework/blank_project/setup_blankProject/setup_Java11.html
 </t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">■ドメインバリデーションを使うhttps://nablarch.github.io/docs/5u15/doc/application_framework/application_framework/libraries/validation/nablarch_validation.html#nablarch-validation-domain-validation
 </t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">■メッセージングログの設定を行う
 https://nablarch.github.io/docs/5u15/doc/application_framework/application_framework/libraries/log/messaging_log.html#messaging-log-setting
 </t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u15/doc/application_framework/application_framework/blank_project/setup_blankProject/setup_Java11.html#jetty-restful</t>
@@ -2492,12 +2224,12 @@
   <si>
     <t>■Nablarchフレームワークのテスト環境
 https://nablarch.github.io/docs/5u15/doc/application_framework/application_framework/nablarch/platform.html#id3</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">■Java Beansオブジェクトを設定するhttps://nablarch.github.io/docs/5u15/doc/application_framework/application_framework/libraries/repository.html#java-beans
 </t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>セッションストアにネストしたクラスを格納できない問題に対応</t>
@@ -2510,7 +2242,7 @@
     <rPh sb="27" eb="29">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">これまでは、セッションストアにネストしたクラスを格納すると実行時例外（ClassNotFoundException）が発生しました。今回の対応でセッションストアにネストしたクラスを格納できるようになりました。
@@ -2539,13 +2271,13 @@
     <rPh sb="90" eb="92">
       <t>カクノウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">■Java11で使用する場合の設定
 https://nablarch.github.io/docs/5u15/doc/extension_components/workflow/tool/index.html#java11
 </t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>選択したモジュールにより、生成するクラスが変わります。</t>
@@ -2558,35 +2290,19 @@
     <rPh sb="21" eb="22">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2976,7 +2692,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
@@ -2988,7 +2704,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3076,238 +2792,250 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="37">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="37">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3318,68 +3046,47 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="38">
     <cellStyle name="ハイパーリンク" xfId="37" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="2"/>
-    <cellStyle name="標準 2 2 2" xfId="4"/>
-    <cellStyle name="標準 2 2 2 2" xfId="9"/>
-    <cellStyle name="標準 2 2 2 2 2" xfId="17"/>
-    <cellStyle name="標準 2 2 2 2 2 2" xfId="18"/>
-    <cellStyle name="標準 2 2 2 2 3" xfId="19"/>
-    <cellStyle name="標準 2 2 2 3" xfId="13"/>
-    <cellStyle name="標準 2 2 2 3 2" xfId="20"/>
-    <cellStyle name="標準 2 2 2 4" xfId="21"/>
-    <cellStyle name="標準 2 2 3" xfId="7"/>
-    <cellStyle name="標準 2 2 3 2" xfId="15"/>
-    <cellStyle name="標準 2 2 3 2 2" xfId="22"/>
-    <cellStyle name="標準 2 2 3 3" xfId="23"/>
-    <cellStyle name="標準 2 2 4" xfId="11"/>
-    <cellStyle name="標準 2 2 4 2" xfId="24"/>
-    <cellStyle name="標準 2 2 5" xfId="25"/>
-    <cellStyle name="標準 2 3" xfId="3"/>
-    <cellStyle name="標準 2 3 2" xfId="8"/>
-    <cellStyle name="標準 2 3 2 2" xfId="16"/>
-    <cellStyle name="標準 2 3 2 2 2" xfId="26"/>
-    <cellStyle name="標準 2 3 2 3" xfId="27"/>
-    <cellStyle name="標準 2 3 3" xfId="12"/>
-    <cellStyle name="標準 2 3 3 2" xfId="28"/>
-    <cellStyle name="標準 2 3 4" xfId="29"/>
-    <cellStyle name="標準 2 4" xfId="6"/>
-    <cellStyle name="標準 2 4 2" xfId="14"/>
-    <cellStyle name="標準 2 4 2 2" xfId="30"/>
-    <cellStyle name="標準 2 4 3" xfId="31"/>
-    <cellStyle name="標準 2 5" xfId="10"/>
-    <cellStyle name="標準 2 5 2" xfId="32"/>
-    <cellStyle name="標準 2 6" xfId="33"/>
-    <cellStyle name="標準 3" xfId="5"/>
-    <cellStyle name="標準 4" xfId="34"/>
-    <cellStyle name="標準 4 2" xfId="35"/>
-    <cellStyle name="標準 5" xfId="36"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 2 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準 2 2 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準 2 2 2 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準 2 2 2 2 2 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="標準 2 2 2 2 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="標準 2 2 2 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="標準 2 2 2 3 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="標準 2 2 2 4" xfId="21" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="標準 2 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="標準 2 2 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="標準 2 2 3 2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="標準 2 2 3 3" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="標準 2 2 4" xfId="11" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="標準 2 2 4 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="標準 2 2 5" xfId="25" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="標準 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="標準 2 3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="標準 2 3 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="標準 2 3 2 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="標準 2 3 2 3" xfId="27" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="標準 2 3 3" xfId="12" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="標準 2 3 3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="標準 2 3 4" xfId="29" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="標準 2 4" xfId="6" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="標準 2 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="標準 2 4 2 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="標準 2 4 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="標準 2 5" xfId="10" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="標準 2 5 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="標準 2 6" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="標準 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="標準 4" xfId="34" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="標準 4 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="標準 5" xfId="36" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -3472,6 +3179,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3493,7 +3203,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3509,7 +3225,7 @@
           <xdr:cNvPr id="7" name="テキスト ボックス 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3556,7 +3272,7 @@
           <xdr:cNvPr id="3" name="テキスト ボックス 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3753,7 +3469,7 @@
           <xdr:cNvPr id="4" name="テキスト ボックス 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3966,7 +3682,7 @@
           <xdr:cNvPr id="6" name="テキスト ボックス 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4126,7 +3842,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4344,7 +4066,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4416,7 +4144,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4530,7 +4264,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4722,7 +4462,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4764,7 +4504,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4797,9 +4537,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4832,6 +4589,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5007,370 +4781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:B71"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="13"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5381,12 +4792,12 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="29" customWidth="1"/>
     <col min="3" max="3" width="4.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="29" customWidth="1"/>
     <col min="5" max="5" width="5.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="37.125" style="1" customWidth="1"/>
@@ -5396,1350 +4807,1355 @@
     <col min="12" max="13" width="24.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.625" style="1" customWidth="1"/>
     <col min="15" max="15" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.375" style="73" customWidth="1"/>
+    <col min="16" max="17" width="9.375" style="70" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:126" s="7" customFormat="1" ht="19.5">
-      <c r="A1" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-    </row>
-    <row r="2" spans="1:126" s="8" customFormat="1" ht="19.5">
-      <c r="A2" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-    </row>
-    <row r="3" spans="1:126" s="9" customFormat="1" ht="73.5" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="AP3" s="10"/>
-      <c r="DV3" s="11"/>
-    </row>
-    <row r="4" spans="1:126" s="2" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A4" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="78" t="s">
+    <row r="1" spans="1:126" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+    </row>
+    <row r="2" spans="1:126" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+    </row>
+    <row r="3" spans="1:126" s="6" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="AP3" s="7"/>
+      <c r="DV3" s="8"/>
+    </row>
+    <row r="4" spans="1:126" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="78" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="77"/>
+      <c r="K4" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="1:126" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="9"/>
+    </row>
+    <row r="6" spans="1:126" ht="21" x14ac:dyDescent="0.15">
+      <c r="A6" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:126" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="22">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="22">
+        <v>5</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="22">
+        <v>15534</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:126" s="9" customFormat="1" ht="192" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="83" t="s">
-        <v>95</v>
-      </c>
-      <c r="J4" s="84"/>
-      <c r="K4" s="78" t="s">
-        <v>84</v>
-      </c>
-      <c r="L4" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="M4" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="O4" s="78" t="s">
-        <v>218</v>
-      </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-    </row>
-    <row r="5" spans="1:126" s="2" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A5" s="76"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="12"/>
-    </row>
-    <row r="6" spans="1:126" ht="21">
-      <c r="A6" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="23"/>
-    </row>
-    <row r="7" spans="1:126" s="12" customFormat="1" ht="60">
-      <c r="A7" s="14"/>
-      <c r="B7" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="25">
-        <v>1</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="J7" s="25">
-        <v>5</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="N7" s="25">
-        <v>15534</v>
-      </c>
-      <c r="O7" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="P7" s="35"/>
-    </row>
-    <row r="8" spans="1:126" s="12" customFormat="1" ht="192">
-      <c r="A8" s="14"/>
-      <c r="B8" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="25">
+      <c r="C8" s="22">
         <f>C7+1</f>
         <v>2</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="L8" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="N8" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="O8" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="P8" s="35"/>
-    </row>
-    <row r="9" spans="1:126" s="12" customFormat="1" ht="180">
-      <c r="A9" s="14"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="25">
+      <c r="D8" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="N8" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:126" s="9" customFormat="1" ht="180" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="22">
         <f>C8+1</f>
         <v>3</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="K9" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="L9" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="M9" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="N9" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="O9" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="P9" s="35"/>
-    </row>
-    <row r="10" spans="1:126" s="12" customFormat="1" ht="96">
-      <c r="A10" s="14"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="25">
+      <c r="D9" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:126" s="9" customFormat="1" ht="96" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="22">
         <f t="shared" ref="C10:C15" si="0">C9+1</f>
         <v>4</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="L10" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="M10" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="N10" s="25">
+      <c r="D10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="N10" s="22">
         <v>15586</v>
       </c>
-      <c r="O10" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="P10" s="35"/>
-    </row>
-    <row r="11" spans="1:126" s="12" customFormat="1" ht="120">
-      <c r="A11" s="14"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="25">
+      <c r="O10" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:126" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="K11" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="L11" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="M11" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="N11" s="25">
+      <c r="D11" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="N11" s="22">
         <v>15563</v>
       </c>
-      <c r="O11" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="P11" s="35"/>
-    </row>
-    <row r="12" spans="1:126" s="12" customFormat="1" ht="108">
-      <c r="A12" s="14"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="25">
+      <c r="O11" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:126" s="9" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="22">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="K12" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="L12" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="M12" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="N12" s="25">
+      <c r="D12" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="N12" s="22">
         <v>15521</v>
       </c>
-      <c r="O12" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="P12" s="35"/>
-    </row>
-    <row r="13" spans="1:126" s="12" customFormat="1" ht="120">
-      <c r="A13" s="14"/>
-      <c r="B13" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" s="25">
+      <c r="O12" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="32"/>
+    </row>
+    <row r="13" spans="1:126" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="22">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="K13" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="L13" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="M13" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="N13" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="O13" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="P13" s="35"/>
-    </row>
-    <row r="14" spans="1:126" s="12" customFormat="1" ht="108">
-      <c r="A14" s="14"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="25">
+      <c r="D13" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="32"/>
+    </row>
+    <row r="14" spans="1:126" s="9" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="22">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="K14" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="L14" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="M14" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="N14" s="25">
+      <c r="D14" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" s="22">
         <v>15585</v>
       </c>
-      <c r="O14" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="P14" s="35"/>
-    </row>
-    <row r="15" spans="1:126" s="12" customFormat="1" ht="156">
-      <c r="A15" s="14"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="25">
+      <c r="O14" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="32"/>
+    </row>
+    <row r="15" spans="1:126" s="9" customFormat="1" ht="156" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="K15" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="L15" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="M15" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="N15" s="25">
+      <c r="D15" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="N15" s="22">
         <v>15582</v>
       </c>
-      <c r="O15" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="P15" s="35"/>
-    </row>
-    <row r="16" spans="1:126" s="12" customFormat="1" ht="21">
-      <c r="A16" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="35"/>
-    </row>
-    <row r="17" spans="1:16" s="12" customFormat="1" ht="72">
-      <c r="A17" s="14"/>
-      <c r="B17" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="25">
+      <c r="O15" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" s="32"/>
+    </row>
+    <row r="16" spans="1:126" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A16" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="32"/>
+    </row>
+    <row r="17" spans="1:16" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="22">
         <f>C15+1</f>
         <v>10</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="K17" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="L17" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="M17" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="N17" s="25">
+      <c r="D17" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="22">
         <v>15585</v>
       </c>
-      <c r="O17" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="P17" s="35"/>
-    </row>
-    <row r="18" spans="1:16" s="12" customFormat="1" ht="21">
-      <c r="A18" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="35"/>
-    </row>
-    <row r="19" spans="1:16" s="12" customFormat="1" ht="288">
-      <c r="A19" s="14"/>
-      <c r="B19" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="25">
+      <c r="O17" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="P17" s="32"/>
+    </row>
+    <row r="18" spans="1:16" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A18" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="1:16" s="9" customFormat="1" ht="288" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
+      <c r="B19" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="22">
         <f>C17+1</f>
         <v>11</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="L19" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="M19" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="N19" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="O19" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="P19" s="35"/>
-    </row>
-    <row r="20" spans="1:16" s="12" customFormat="1" ht="240">
-      <c r="A20" s="14"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="25">
+      <c r="D19" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="O19" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="P19" s="32"/>
+    </row>
+    <row r="20" spans="1:16" s="9" customFormat="1" ht="240" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="22">
         <f t="shared" ref="C20:C25" si="1">C19+1</f>
         <v>12</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="E20" s="26" t="s">
+      <c r="D20" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="L20" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="M20" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="N20" s="25">
+      <c r="I20" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M20" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" s="22">
         <v>15582</v>
       </c>
-      <c r="O20" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="P20" s="35"/>
-    </row>
-    <row r="21" spans="1:16" s="12" customFormat="1" ht="72">
-      <c r="A21" s="14"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="25">
+      <c r="O20" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="P20" s="32"/>
+    </row>
+    <row r="21" spans="1:16" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A21" s="11"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="22">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D21" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="L21" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="M21" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="N21" s="25">
+      <c r="D21" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="N21" s="22">
         <v>15585</v>
       </c>
-      <c r="O21" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="P21" s="35"/>
-    </row>
-    <row r="22" spans="1:16" s="12" customFormat="1" ht="48">
-      <c r="A22" s="14"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="25">
+      <c r="O21" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="P21" s="32"/>
+    </row>
+    <row r="22" spans="1:16" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A22" s="11"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="22">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="K22" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="L22" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="M22" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="N22" s="25">
+      <c r="D22" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22" s="22">
         <v>15539</v>
       </c>
-      <c r="O22" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="P22" s="35"/>
-    </row>
-    <row r="23" spans="1:16" s="12" customFormat="1" ht="48">
-      <c r="A23" s="14"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="25">
+      <c r="O22" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:16" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A23" s="11"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="22">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="L23" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="M23" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="N23" s="25">
+      <c r="D23" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M23" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="N23" s="22">
         <v>15537</v>
       </c>
-      <c r="O23" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="P23" s="35"/>
-    </row>
-    <row r="24" spans="1:16" s="12" customFormat="1" ht="60">
-      <c r="A24" s="14"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="25">
+      <c r="O23" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="24" spans="1:16" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A24" s="11"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="22">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D24" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="K24" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="L24" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="M24" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="N24" s="25">
+      <c r="D24" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M24" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="N24" s="22">
         <v>15541</v>
       </c>
-      <c r="O24" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="P24" s="35"/>
-    </row>
-    <row r="25" spans="1:16" s="12" customFormat="1" ht="84">
-      <c r="A25" s="14"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="25">
+      <c r="O24" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="P24" s="32"/>
+    </row>
+    <row r="25" spans="1:16" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A25" s="11"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="22">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D25" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="J25" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="K25" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="L25" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="M25" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="N25" s="25">
+      <c r="D25" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M25" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="N25" s="22">
         <v>15535</v>
       </c>
-      <c r="O25" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="P25" s="35"/>
-    </row>
-    <row r="26" spans="1:16" s="12" customFormat="1" ht="21">
-      <c r="A26" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="35"/>
-    </row>
-    <row r="27" spans="1:16" s="12" customFormat="1" ht="48">
-      <c r="A27" s="14"/>
-      <c r="B27" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="25">
+      <c r="O25" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="P25" s="32"/>
+    </row>
+    <row r="26" spans="1:16" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A26" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="32"/>
+    </row>
+    <row r="27" spans="1:16" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A27" s="11"/>
+      <c r="B27" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="22">
         <f>C25+1</f>
         <v>18</v>
       </c>
-      <c r="D27" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="I27" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="J27" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="K27" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="L27" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="M27" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="N27" s="25">
+      <c r="D27" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="N27" s="22">
         <v>15585</v>
       </c>
-      <c r="O27" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="P27" s="35"/>
-    </row>
-    <row r="28" spans="1:16" s="12" customFormat="1" ht="21">
-      <c r="A28" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="35"/>
-    </row>
-    <row r="29" spans="1:16" s="12" customFormat="1" ht="84">
-      <c r="A29" s="14"/>
-      <c r="B29" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="25">
+      <c r="O27" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="P27" s="32"/>
+    </row>
+    <row r="28" spans="1:16" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A28" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="32"/>
+    </row>
+    <row r="29" spans="1:16" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A29" s="11"/>
+      <c r="B29" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="22">
         <f>C27+1</f>
         <v>19</v>
       </c>
-      <c r="D29" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="H29" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="I29" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="J29" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="K29" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="L29" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="M29" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="N29" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="O29" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="P29" s="35"/>
-    </row>
-    <row r="30" spans="1:16" s="12" customFormat="1" ht="21">
-      <c r="A30" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="35"/>
-    </row>
-    <row r="31" spans="1:16" s="12" customFormat="1" ht="108">
-      <c r="A31" s="14"/>
-      <c r="B31" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="25">
+      <c r="D29" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L29" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M29" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="N29" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="O29" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" s="32"/>
+    </row>
+    <row r="30" spans="1:16" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A30" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:16" s="9" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+      <c r="A31" s="11"/>
+      <c r="B31" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="22">
         <f>C29+1</f>
         <v>20</v>
       </c>
-      <c r="D31" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="G31" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="H31" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="I31" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="J31" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="K31" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="L31" s="25" t="s">
+      <c r="D31" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="M31" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="N31" s="25">
+      <c r="H31" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="N31" s="22">
         <v>15580</v>
       </c>
-      <c r="O31" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="P31" s="35"/>
-    </row>
-    <row r="32" spans="1:16" s="12" customFormat="1" ht="21">
-      <c r="A32" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="35"/>
-    </row>
-    <row r="33" spans="1:16" s="12" customFormat="1" ht="240">
-      <c r="A33" s="14"/>
-      <c r="B33" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="25">
+      <c r="O31" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:16" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A32" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:16" s="9" customFormat="1" ht="240" x14ac:dyDescent="0.15">
+      <c r="A33" s="11"/>
+      <c r="B33" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="22">
         <f>C31+1</f>
         <v>21</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="E33" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="H33" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="I33" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="J33" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="K33" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="L33" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="M33" s="25"/>
-      <c r="N33" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="O33" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="P33" s="35"/>
-    </row>
-    <row r="34" spans="1:16" s="12" customFormat="1" ht="21">
-      <c r="A34" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="35"/>
-    </row>
-    <row r="35" spans="1:16" s="12" customFormat="1" ht="84">
-      <c r="A35" s="69"/>
-      <c r="B35" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="25">
+      <c r="H33" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="K33" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="L33" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="O33" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:16" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A34" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="47"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:16" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A35" s="66"/>
+      <c r="B35" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="22">
         <f>C33+1</f>
         <v>22</v>
       </c>
-      <c r="D35" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="H35" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="I35" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="J35" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="K35" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="L35" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="M35" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="N35" s="25">
+      <c r="D35" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="N35" s="22">
         <v>15425</v>
       </c>
-      <c r="O35" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="P35" s="35"/>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="53"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-    </row>
-    <row r="37" spans="1:16" ht="15.75">
-      <c r="A37" s="54"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="O35" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="50"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+    </row>
+    <row r="37" spans="1:16" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A37" s="51"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:16">
-      <c r="B39" s="55"/>
-    </row>
-    <row r="40" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B39" s="52"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="B41" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:O35">
+  <autoFilter ref="A5:O35" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
-  <sortState ref="A7:DV25">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:DV25">
     <sortCondition ref="D7:D25"/>
     <sortCondition ref="E7:E25"/>
   </sortState>
   <mergeCells count="13">
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
@@ -6748,13 +6164,8 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
   </mergeCells>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="11"/>
   <conditionalFormatting sqref="G26">
     <cfRule type="expression" dxfId="10" priority="16">
       <formula>#REF!="完了"</formula>
@@ -6824,108 +6235,108 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="3.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="89.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="3.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="89.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="19"/>
-      <c r="B4" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="16"/>
+      <c r="B4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20">
+      <c r="C5" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17">
         <f>$B5+1</f>
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="C6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
@@ -6934,317 +6345,318 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="57" customWidth="1"/>
-    <col min="2" max="2" width="7" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.375" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="57" customWidth="1"/>
-    <col min="5" max="5" width="30.625" style="57" customWidth="1"/>
-    <col min="6" max="6" width="6.625" style="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="57" customWidth="1"/>
-    <col min="8" max="8" width="40.625" style="57" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="57" customWidth="1"/>
-    <col min="10" max="16384" width="10.5" style="57"/>
+    <col min="1" max="1" width="2.375" style="54" customWidth="1"/>
+    <col min="2" max="2" width="7" style="54" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.375" style="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="54" customWidth="1"/>
+    <col min="5" max="5" width="30.625" style="54" customWidth="1"/>
+    <col min="6" max="6" width="6.625" style="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" style="54" customWidth="1"/>
+    <col min="8" max="8" width="40.625" style="54" customWidth="1"/>
+    <col min="9" max="9" width="2.625" style="54" customWidth="1"/>
+    <col min="10" max="16384" width="10.5" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="19.5">
-      <c r="A1" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" ht="19.5">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" s="8" customFormat="1" ht="15.75">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="G3" s="56"/>
-    </row>
-    <row r="4" spans="1:7" s="8" customFormat="1" ht="15.75">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="G4" s="56"/>
-    </row>
-    <row r="5" spans="1:7" s="8" customFormat="1" ht="15.75">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="G5" s="56"/>
-    </row>
-    <row r="6" spans="1:7" s="8" customFormat="1" ht="15.75">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="G6" s="56"/>
-    </row>
-    <row r="7" spans="1:7" s="8" customFormat="1" ht="15.75">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="G7" s="56"/>
-    </row>
-    <row r="8" spans="1:7" s="8" customFormat="1" ht="15.75">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="G8" s="56"/>
-    </row>
-    <row r="9" spans="1:7" s="8" customFormat="1" ht="15.75">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="G9" s="56"/>
-    </row>
-    <row r="10" spans="1:7" s="8" customFormat="1" ht="15.75">
-      <c r="A10" s="15"/>
-      <c r="B10" s="64" t="s">
-        <v>197</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="G10" s="56"/>
-    </row>
-    <row r="11" spans="1:7" s="8" customFormat="1" ht="15.75">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="G11" s="56"/>
-    </row>
-    <row r="13" spans="1:7" ht="24">
-      <c r="B13" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="58" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="36">
-      <c r="B14" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="C14" s="65">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="G3" s="53"/>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="G4" s="53"/>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="G5" s="53"/>
+    </row>
+    <row r="6" spans="1:7" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="G6" s="53"/>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="G7" s="53"/>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="G8" s="53"/>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="G9" s="53"/>
+    </row>
+    <row r="10" spans="1:7" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="G10" s="53"/>
+    </row>
+    <row r="11" spans="1:7" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="G11" s="53"/>
+    </row>
+    <row r="13" spans="1:7" ht="24" x14ac:dyDescent="0.2">
+      <c r="B13" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.2">
+      <c r="B14" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="62">
         <v>1</v>
       </c>
-      <c r="D14" s="66" t="s">
-        <v>193</v>
-      </c>
-      <c r="E14" s="65" t="s">
-        <v>183</v>
-      </c>
-      <c r="F14" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="G14" s="66" t="s">
-        <v>195</v>
+      <c r="D14" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="63" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="97" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="4.875" style="67" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="67"/>
+    <col min="1" max="3" width="4.875" style="64" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5">
-      <c r="A1" s="17" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="67" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="67" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="C7" s="67" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="C8" s="67" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="D9" s="67" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="C10" s="67" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="C11" s="67" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="D12" s="67" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="D13" s="67" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="C15" s="67" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="C16" s="67" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="67" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="C21" s="67" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="D22" s="67" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="C24" s="67" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="D25" s="67" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="D26" s="67" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="C28" s="67" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="D29" s="67" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="67" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="67" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" s="67" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3">
-      <c r="C38" s="67" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="43" spans="3:3">
-      <c r="C43" s="67" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="44" spans="3:3">
-      <c r="C44" s="67" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" spans="3:3">
-      <c r="C47" s="67" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3">
-      <c r="C53" s="67" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="54" spans="3:3">
-      <c r="C54" s="70" t="s">
-        <v>265</v>
+    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="64" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="64" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C7" s="64" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C8" s="64" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D9" s="64" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C10" s="64" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C11" s="64" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D12" s="64" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D13" s="64" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C15" s="64" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C16" s="64" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="64" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C21" s="64" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D22" s="64" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C24" s="64" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D25" s="64" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D26" s="64" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C28" s="64" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D29" s="64" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C34" s="64" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C36" s="64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C38" s="64" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C43" s="64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C44" s="64" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C47" s="64" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C53" s="64" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C54" s="67" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="11"/>
   <hyperlinks>
-    <hyperlink ref="C54" r:id="rId1" location="jetty-restful"/>
+    <hyperlink ref="C54" r:id="rId1" location="jetty-restful" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="59" orientation="portrait" verticalDpi="0" r:id="rId2"/>
@@ -7255,89 +6667,90 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="4.875" style="67" customWidth="1"/>
-    <col min="4" max="13" width="9" style="67"/>
-    <col min="15" max="16384" width="9" style="67"/>
+    <col min="1" max="3" width="4.875" style="64" customWidth="1"/>
+    <col min="4" max="13" width="9" style="64"/>
+    <col min="15" max="16384" width="9" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5">
-      <c r="A1" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="67" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="67" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="C7" s="67" t="s">
+    <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B3" s="64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B5" s="64" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C7" s="64" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C8" s="64" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C9" s="64" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C10" s="64" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C11" s="64" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B13" s="64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C15" s="64" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C21" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="N21" s="64"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="C22" s="64" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="C8" s="67" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="C9" s="67" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="C10" s="67" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="C11" s="67" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="67" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="C15" s="67" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14">
-      <c r="C21" s="67" t="s">
-        <v>203</v>
-      </c>
-      <c r="N21" s="67"/>
-    </row>
-    <row r="22" spans="3:14">
-      <c r="C22" s="67" t="s">
-        <v>272</v>
-      </c>
-      <c r="N22" s="67"/>
-    </row>
-    <row r="25" spans="3:14">
-      <c r="N25" s="67"/>
-    </row>
-    <row r="26" spans="3:14">
-      <c r="N26" s="67"/>
+      <c r="N22" s="64"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="N25" s="64"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.15">
+      <c r="N26" s="64"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
